--- a/08 Project Management/Tidsregistrering/PM04 Tidsregistrering for Toke.xlsx
+++ b/08 Project Management/Tidsregistrering/PM04 Tidsregistrering for Toke.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t xml:space="preserve">Tidsregistrering af Toke</t>
   </si>
@@ -63,6 +63,24 @@
   </si>
   <si>
     <t xml:space="preserve">Use Case Diagram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kommunikation med Anders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grundopsætning af rapport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metrikker – bilag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review risikoanalyse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projektplan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metrikker – rapport</t>
   </si>
   <si>
     <t xml:space="preserve">Roller!</t>
@@ -529,9 +547,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>245160</xdr:colOff>
+      <xdr:colOff>244800</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>82080</xdr:rowOff>
+      <xdr:rowOff>81720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -541,7 +559,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12440160" y="2517480"/>
-          <a:ext cx="184320" cy="248400"/>
+          <a:ext cx="183960" cy="248040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -571,10 +589,10 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="53.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="31.44"/>
@@ -715,75 +733,141 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="15"/>
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="15" t="n">
+        <v>43963</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>0.395833333333333</v>
+      </c>
       <c r="F7" s="20"/>
       <c r="G7" s="18" t="n">
         <f aca="false">E7-D7</f>
-        <v>0</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="H7" s="19" t="n">
         <f aca="false">SUM(G$3:G7)</f>
-        <v>0.3125</v>
+        <v>0.354166666666667</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="15"/>
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="15" t="n">
+        <v>43963</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>0.458333333333333</v>
+      </c>
       <c r="F8" s="20"/>
       <c r="G8" s="18" t="n">
         <f aca="false">E8-D8</f>
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="H8" s="19" t="n">
         <f aca="false">SUM(G$3:G8)</f>
-        <v>0.3125</v>
+        <v>0.416666666666667</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="15"/>
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="15" t="n">
+        <v>43963</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>0.541666666666667</v>
+      </c>
       <c r="F9" s="20"/>
       <c r="G9" s="18" t="n">
         <f aca="false">E9-D9</f>
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H9" s="19" t="n">
         <f aca="false">SUM(G$3:G9)</f>
-        <v>0.3125</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="15"/>
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="15" t="n">
+        <v>43963</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>0.583333333333333</v>
+      </c>
       <c r="F10" s="20"/>
       <c r="G10" s="18" t="n">
         <f aca="false">E10-D10</f>
-        <v>0</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="H10" s="19" t="n">
         <f aca="false">SUM(G$3:G10)</f>
-        <v>0.3125</v>
+        <v>0.541666666666667</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="15"/>
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="15" t="n">
+        <v>43963</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>0.677083333333333</v>
+      </c>
       <c r="F11" s="20"/>
       <c r="G11" s="18" t="n">
         <f aca="false">E11-D11</f>
-        <v>0</v>
+        <v>0.09375</v>
       </c>
       <c r="H11" s="19" t="n">
         <f aca="false">SUM(G$3:G11)</f>
-        <v>0.3125</v>
+        <v>0.635416666666667</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="15"/>
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="15" t="n">
+        <v>43963</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>0.677083333333333</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>0.71875</v>
+      </c>
       <c r="F12" s="20"/>
       <c r="G12" s="18" t="n">
         <f aca="false">E12-D12</f>
-        <v>0</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="H12" s="19" t="n">
         <f aca="false">SUM(G$3:G12)</f>
-        <v>0.3125</v>
+        <v>0.677083333333334</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -795,7 +879,7 @@
       </c>
       <c r="H13" s="19" t="n">
         <f aca="false">SUM(G$3:G13)</f>
-        <v>0.3125</v>
+        <v>0.677083333333334</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -807,7 +891,7 @@
       </c>
       <c r="H14" s="19" t="n">
         <f aca="false">SUM(G$3:G14)</f>
-        <v>0.3125</v>
+        <v>0.677083333333334</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -819,7 +903,7 @@
       </c>
       <c r="H15" s="19" t="n">
         <f aca="false">SUM(G$3:G15)</f>
-        <v>0.3125</v>
+        <v>0.677083333333334</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -831,7 +915,7 @@
       </c>
       <c r="H16" s="19" t="n">
         <f aca="false">SUM(G$3:G16)</f>
-        <v>0.3125</v>
+        <v>0.677083333333334</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -843,7 +927,7 @@
       </c>
       <c r="H17" s="19" t="n">
         <f aca="false">SUM(G$3:G17)</f>
-        <v>0.3125</v>
+        <v>0.677083333333334</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -855,7 +939,7 @@
       </c>
       <c r="H18" s="19" t="n">
         <f aca="false">SUM(G$3:G18)</f>
-        <v>0.3125</v>
+        <v>0.677083333333334</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -867,7 +951,7 @@
       </c>
       <c r="H19" s="19" t="n">
         <f aca="false">SUM(G$3:G19)</f>
-        <v>0.3125</v>
+        <v>0.677083333333334</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -879,7 +963,7 @@
       </c>
       <c r="H20" s="19" t="n">
         <f aca="false">SUM(G$3:G20)</f>
-        <v>0.3125</v>
+        <v>0.677083333333334</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -891,7 +975,7 @@
       </c>
       <c r="H21" s="19" t="n">
         <f aca="false">SUM(G$3:G21)</f>
-        <v>0.3125</v>
+        <v>0.677083333333334</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -903,7 +987,7 @@
       </c>
       <c r="H22" s="19" t="n">
         <f aca="false">SUM(G$3:G22)</f>
-        <v>0.3125</v>
+        <v>0.677083333333334</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -915,7 +999,7 @@
       </c>
       <c r="H23" s="19" t="n">
         <f aca="false">SUM(G$3:G23)</f>
-        <v>0.3125</v>
+        <v>0.677083333333334</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -927,7 +1011,7 @@
       </c>
       <c r="H24" s="19" t="n">
         <f aca="false">SUM(G$3:G24)</f>
-        <v>0.3125</v>
+        <v>0.677083333333334</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -938,7 +1022,7 @@
       </c>
       <c r="H25" s="19" t="n">
         <f aca="false">SUM(G$3:G25)</f>
-        <v>0.3125</v>
+        <v>0.677083333333334</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -949,7 +1033,7 @@
       </c>
       <c r="H26" s="19" t="n">
         <f aca="false">SUM(G$3:G26)</f>
-        <v>0.3125</v>
+        <v>0.677083333333334</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -960,7 +1044,7 @@
       </c>
       <c r="H27" s="19" t="n">
         <f aca="false">SUM(G$3:G27)</f>
-        <v>0.3125</v>
+        <v>0.677083333333334</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -971,7 +1055,7 @@
       </c>
       <c r="H28" s="19" t="n">
         <f aca="false">SUM(G$3:G28)</f>
-        <v>0.3125</v>
+        <v>0.677083333333334</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -982,7 +1066,7 @@
       </c>
       <c r="H29" s="19" t="n">
         <f aca="false">SUM(G$3:G29)</f>
-        <v>0.3125</v>
+        <v>0.677083333333334</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -993,7 +1077,7 @@
       </c>
       <c r="H30" s="19" t="n">
         <f aca="false">SUM(G$3:G30)</f>
-        <v>0.3125</v>
+        <v>0.677083333333334</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1004,7 +1088,7 @@
       </c>
       <c r="H31" s="19" t="n">
         <f aca="false">SUM(G$3:G31)</f>
-        <v>0.3125</v>
+        <v>0.677083333333334</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1015,7 +1099,7 @@
       </c>
       <c r="H32" s="19" t="n">
         <f aca="false">SUM(G$3:G32)</f>
-        <v>0.3125</v>
+        <v>0.677083333333334</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1107,14 +1191,14 @@
       <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.89"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -1123,10 +1207,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1134,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1142,7 +1226,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1150,7 +1234,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1158,7 +1242,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1166,7 +1250,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1174,7 +1258,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1182,7 +1266,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1190,7 +1274,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1198,7 +1282,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1206,7 +1290,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1214,7 +1298,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1222,7 +1306,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1230,7 +1314,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1238,7 +1322,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1246,7 +1330,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1254,7 +1338,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1262,7 +1346,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1270,7 +1354,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1278,7 +1362,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1286,7 +1370,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1294,7 +1378,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1302,7 +1386,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1310,7 +1394,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1318,7 +1402,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1326,7 +1410,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1334,7 +1418,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1342,7 +1426,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1350,7 +1434,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1358,7 +1442,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/08 Project Management/Tidsregistrering/PM04 Tidsregistrering for Toke.xlsx
+++ b/08 Project Management/Tidsregistrering/PM04 Tidsregistrering for Toke.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t xml:space="preserve">Tidsregistrering af Toke</t>
   </si>
@@ -81,6 +81,33 @@
   </si>
   <si>
     <t xml:space="preserve">Metrikker – rapport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UC01 og UC02 frem til SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vejledning fra Andrés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vejledning fra Anders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rettelse af UCD01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masse omdøbelse af filer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rettelse af UC02, samt vejledning fa Anders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rettelse af AD01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rettelse af DOM02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rettelse af SSD01</t>
   </si>
   <si>
     <t xml:space="preserve">Roller!</t>
@@ -547,9 +574,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>244800</xdr:colOff>
+      <xdr:colOff>244440</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>81720</xdr:rowOff>
+      <xdr:rowOff>81360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -559,7 +586,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12440160" y="2517480"/>
-          <a:ext cx="183960" cy="248040"/>
+          <a:ext cx="183600" cy="247680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -589,7 +616,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -871,111 +898,210 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="15"/>
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="15" t="n">
+        <v>43964</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>0.583333333333333</v>
+      </c>
       <c r="F13" s="20"/>
       <c r="G13" s="18" t="n">
         <f aca="false">E13-D13</f>
-        <v>0</v>
+        <v>0.229166666666667</v>
       </c>
       <c r="H13" s="19" t="n">
         <f aca="false">SUM(G$3:G13)</f>
-        <v>0.677083333333334</v>
+        <v>0.906250000000001</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="15"/>
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="15" t="n">
+        <v>43964</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>0.666666666666667</v>
+      </c>
       <c r="F14" s="20"/>
       <c r="G14" s="18" t="n">
         <f aca="false">E14-D14</f>
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H14" s="19" t="n">
         <f aca="false">SUM(G$3:G14)</f>
-        <v>0.677083333333334</v>
+        <v>0.989583333333334</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="15"/>
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="15" t="n">
+        <v>43964</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>0.729166666666667</v>
+      </c>
       <c r="F15" s="20"/>
       <c r="G15" s="18" t="n">
         <f aca="false">E15-D15</f>
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="H15" s="19" t="n">
         <f aca="false">SUM(G$3:G15)</f>
-        <v>0.677083333333334</v>
+        <v>1.05208333333333</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="15"/>
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="15" t="n">
+        <v>43965</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>0.40625</v>
+      </c>
       <c r="F16" s="20"/>
       <c r="G16" s="18" t="n">
         <f aca="false">E16-D16</f>
-        <v>0</v>
+        <v>0.0520833333333333</v>
       </c>
       <c r="H16" s="19" t="n">
         <f aca="false">SUM(G$3:G16)</f>
-        <v>0.677083333333334</v>
+        <v>1.10416666666667</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="15"/>
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="15" t="n">
+        <v>43965</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>0.40625</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>0.427083333333333</v>
+      </c>
       <c r="F17" s="20"/>
       <c r="G17" s="18" t="n">
         <f aca="false">E17-D17</f>
-        <v>0</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="H17" s="19" t="n">
         <f aca="false">SUM(G$3:G17)</f>
-        <v>0.677083333333334</v>
+        <v>1.125</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="15"/>
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="15" t="n">
+        <v>43965</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>0.427083333333333</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>0.572916666666667</v>
+      </c>
       <c r="F18" s="20"/>
       <c r="G18" s="18" t="n">
         <f aca="false">E18-D18</f>
-        <v>0</v>
+        <v>0.145833333333333</v>
       </c>
       <c r="H18" s="19" t="n">
         <f aca="false">SUM(G$3:G18)</f>
-        <v>0.677083333333334</v>
+        <v>1.27083333333333</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="15"/>
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="15" t="n">
+        <v>43965</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>0.572916666666667</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>0.604166666666667</v>
+      </c>
       <c r="F19" s="20"/>
       <c r="G19" s="18" t="n">
         <f aca="false">E19-D19</f>
-        <v>0</v>
+        <v>0.03125</v>
       </c>
       <c r="H19" s="19" t="n">
         <f aca="false">SUM(G$3:G19)</f>
-        <v>0.677083333333334</v>
+        <v>1.30208333333333</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="15"/>
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="15" t="n">
+        <v>43965</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>0.604166666666667</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>0.645833333333333</v>
+      </c>
       <c r="F20" s="20"/>
       <c r="G20" s="18" t="n">
         <f aca="false">E20-D20</f>
-        <v>0</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="H20" s="19" t="n">
         <f aca="false">SUM(G$3:G20)</f>
-        <v>0.677083333333334</v>
+        <v>1.34375</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="15"/>
+      <c r="A21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="15" t="n">
+        <v>43965</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>0.645833333333333</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>0.6875</v>
+      </c>
       <c r="F21" s="20"/>
       <c r="G21" s="18" t="n">
         <f aca="false">E21-D21</f>
-        <v>0</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="H21" s="19" t="n">
         <f aca="false">SUM(G$3:G21)</f>
-        <v>0.677083333333334</v>
+        <v>1.38541666666667</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -987,7 +1113,7 @@
       </c>
       <c r="H22" s="19" t="n">
         <f aca="false">SUM(G$3:G22)</f>
-        <v>0.677083333333334</v>
+        <v>1.38541666666667</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -999,7 +1125,7 @@
       </c>
       <c r="H23" s="19" t="n">
         <f aca="false">SUM(G$3:G23)</f>
-        <v>0.677083333333334</v>
+        <v>1.38541666666667</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1011,7 +1137,7 @@
       </c>
       <c r="H24" s="19" t="n">
         <f aca="false">SUM(G$3:G24)</f>
-        <v>0.677083333333334</v>
+        <v>1.38541666666667</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1022,7 +1148,7 @@
       </c>
       <c r="H25" s="19" t="n">
         <f aca="false">SUM(G$3:G25)</f>
-        <v>0.677083333333334</v>
+        <v>1.38541666666667</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1033,7 +1159,7 @@
       </c>
       <c r="H26" s="19" t="n">
         <f aca="false">SUM(G$3:G26)</f>
-        <v>0.677083333333334</v>
+        <v>1.38541666666667</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1044,7 +1170,7 @@
       </c>
       <c r="H27" s="19" t="n">
         <f aca="false">SUM(G$3:G27)</f>
-        <v>0.677083333333334</v>
+        <v>1.38541666666667</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1055,7 +1181,7 @@
       </c>
       <c r="H28" s="19" t="n">
         <f aca="false">SUM(G$3:G28)</f>
-        <v>0.677083333333334</v>
+        <v>1.38541666666667</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1066,7 +1192,7 @@
       </c>
       <c r="H29" s="19" t="n">
         <f aca="false">SUM(G$3:G29)</f>
-        <v>0.677083333333334</v>
+        <v>1.38541666666667</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1077,7 +1203,7 @@
       </c>
       <c r="H30" s="19" t="n">
         <f aca="false">SUM(G$3:G30)</f>
-        <v>0.677083333333334</v>
+        <v>1.38541666666667</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1088,7 +1214,7 @@
       </c>
       <c r="H31" s="19" t="n">
         <f aca="false">SUM(G$3:G31)</f>
-        <v>0.677083333333334</v>
+        <v>1.38541666666667</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1099,7 +1225,7 @@
       </c>
       <c r="H32" s="19" t="n">
         <f aca="false">SUM(G$3:G32)</f>
-        <v>0.677083333333334</v>
+        <v>1.38541666666667</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1198,7 +1324,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -1207,10 +1333,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1218,7 +1344,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1226,7 +1352,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1234,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1242,7 +1368,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1250,7 +1376,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1258,7 +1384,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1266,7 +1392,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1274,7 +1400,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1282,7 +1408,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1290,7 +1416,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1298,7 +1424,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1306,7 +1432,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1314,7 +1440,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1322,7 +1448,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1330,7 +1456,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1338,7 +1464,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1346,7 +1472,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1354,7 +1480,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1362,7 +1488,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1370,7 +1496,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1378,7 +1504,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1386,7 +1512,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1394,7 +1520,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1402,7 +1528,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1410,7 +1536,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1418,7 +1544,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1426,7 +1552,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1434,7 +1560,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1442,7 +1568,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/08 Project Management/Tidsregistrering/PM04 Tidsregistrering for Toke.xlsx
+++ b/08 Project Management/Tidsregistrering/PM04 Tidsregistrering for Toke.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t xml:space="preserve">Tidsregistrering af Toke</t>
   </si>
@@ -108,6 +108,15 @@
   </si>
   <si>
     <t xml:space="preserve">Rettelse af SSD01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATD01+02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OC0101+0102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapport – Finansiering</t>
   </si>
   <si>
     <t xml:space="preserve">Roller!</t>
@@ -574,9 +583,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>244440</xdr:colOff>
+      <xdr:colOff>244080</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
+      <xdr:rowOff>81000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -586,7 +595,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12440160" y="2517480"/>
-          <a:ext cx="183600" cy="247680"/>
+          <a:ext cx="183240" cy="247320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -616,7 +625,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1105,39 +1114,72 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="15"/>
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="15" t="n">
+        <v>43966</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>0.385416666666667</v>
+      </c>
       <c r="F22" s="20"/>
       <c r="G22" s="18" t="n">
         <f aca="false">E22-D22</f>
-        <v>0</v>
+        <v>0.03125</v>
       </c>
       <c r="H22" s="19" t="n">
         <f aca="false">SUM(G$3:G22)</f>
-        <v>1.38541666666667</v>
+        <v>1.41666666666667</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="15"/>
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="15" t="n">
+        <v>43966</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>0.385416666666667</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>0.541666666666667</v>
+      </c>
       <c r="F23" s="20"/>
       <c r="G23" s="18" t="n">
         <f aca="false">E23-D23</f>
-        <v>0</v>
+        <v>0.15625</v>
       </c>
       <c r="H23" s="19" t="n">
         <f aca="false">SUM(G$3:G23)</f>
-        <v>1.38541666666667</v>
+        <v>1.57291666666667</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="15"/>
+      <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="15" t="n">
+        <v>43966</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>0.666666666666667</v>
+      </c>
       <c r="F24" s="20"/>
       <c r="G24" s="18" t="n">
         <f aca="false">E24-D24</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="H24" s="19" t="n">
         <f aca="false">SUM(G$3:G24)</f>
-        <v>1.38541666666667</v>
+        <v>1.69791666666667</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1148,7 +1190,7 @@
       </c>
       <c r="H25" s="19" t="n">
         <f aca="false">SUM(G$3:G25)</f>
-        <v>1.38541666666667</v>
+        <v>1.69791666666667</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1159,7 +1201,7 @@
       </c>
       <c r="H26" s="19" t="n">
         <f aca="false">SUM(G$3:G26)</f>
-        <v>1.38541666666667</v>
+        <v>1.69791666666667</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1170,7 +1212,7 @@
       </c>
       <c r="H27" s="19" t="n">
         <f aca="false">SUM(G$3:G27)</f>
-        <v>1.38541666666667</v>
+        <v>1.69791666666667</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1181,7 +1223,7 @@
       </c>
       <c r="H28" s="19" t="n">
         <f aca="false">SUM(G$3:G28)</f>
-        <v>1.38541666666667</v>
+        <v>1.69791666666667</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1192,7 +1234,7 @@
       </c>
       <c r="H29" s="19" t="n">
         <f aca="false">SUM(G$3:G29)</f>
-        <v>1.38541666666667</v>
+        <v>1.69791666666667</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1203,7 +1245,7 @@
       </c>
       <c r="H30" s="19" t="n">
         <f aca="false">SUM(G$3:G30)</f>
-        <v>1.38541666666667</v>
+        <v>1.69791666666667</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1214,7 +1256,7 @@
       </c>
       <c r="H31" s="19" t="n">
         <f aca="false">SUM(G$3:G31)</f>
-        <v>1.38541666666667</v>
+        <v>1.69791666666667</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1225,7 +1267,7 @@
       </c>
       <c r="H32" s="19" t="n">
         <f aca="false">SUM(G$3:G32)</f>
-        <v>1.38541666666667</v>
+        <v>1.69791666666667</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1324,7 +1366,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -1333,10 +1375,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1344,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1352,7 +1394,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1360,7 +1402,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1368,7 +1410,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1376,7 +1418,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1384,7 +1426,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1392,7 +1434,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1400,7 +1442,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1408,7 +1450,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1416,7 +1458,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1424,7 +1466,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1432,7 +1474,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1440,7 +1482,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1448,7 +1490,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1456,7 +1498,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1464,7 +1506,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1472,7 +1514,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1480,7 +1522,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1488,7 +1530,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1496,7 +1538,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1504,7 +1546,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1512,7 +1554,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1520,7 +1562,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1528,7 +1570,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1536,7 +1578,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1544,7 +1586,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1552,7 +1594,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1560,7 +1602,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1568,7 +1610,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/08 Project Management/Tidsregistrering/PM04 Tidsregistrering for Toke.xlsx
+++ b/08 Project Management/Tidsregistrering/PM04 Tidsregistrering for Toke.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t xml:space="preserve">Tidsregistrering af Toke</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t xml:space="preserve">Rapport – Finansiering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD02+DCD02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kunden møde</t>
   </si>
   <si>
     <t xml:space="preserve">Roller!</t>
@@ -583,9 +589,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>244080</xdr:colOff>
+      <xdr:colOff>243720</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>81000</xdr:rowOff>
+      <xdr:rowOff>80640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -595,7 +601,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12440160" y="2517480"/>
-          <a:ext cx="183240" cy="247320"/>
+          <a:ext cx="182880" cy="246960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -625,7 +631,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
+      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1183,36 +1189,69 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="15"/>
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="15" t="n">
+        <v>43966</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>0.541666666666667</v>
+      </c>
       <c r="G25" s="18" t="n">
         <f aca="false">E25-D25</f>
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="H25" s="19" t="n">
         <f aca="false">SUM(G$3:G25)</f>
-        <v>1.69791666666667</v>
+        <v>1.88541666666667</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="15"/>
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="15" t="n">
+        <v>43966</v>
+      </c>
+      <c r="D26" s="3" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>0.604166666666667</v>
+      </c>
       <c r="G26" s="18" t="n">
         <f aca="false">E26-D26</f>
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="H26" s="19" t="n">
         <f aca="false">SUM(G$3:G26)</f>
-        <v>1.69791666666667</v>
+        <v>1.94791666666667</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="15"/>
+      <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="15" t="n">
+        <v>43966</v>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>0.604166666666667</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>0.6875</v>
+      </c>
       <c r="G27" s="18" t="n">
         <f aca="false">E27-D27</f>
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H27" s="19" t="n">
         <f aca="false">SUM(G$3:G27)</f>
-        <v>1.69791666666667</v>
+        <v>2.03125</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1223,7 +1262,7 @@
       </c>
       <c r="H28" s="19" t="n">
         <f aca="false">SUM(G$3:G28)</f>
-        <v>1.69791666666667</v>
+        <v>2.03125</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1234,7 +1273,7 @@
       </c>
       <c r="H29" s="19" t="n">
         <f aca="false">SUM(G$3:G29)</f>
-        <v>1.69791666666667</v>
+        <v>2.03125</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1245,7 +1284,7 @@
       </c>
       <c r="H30" s="19" t="n">
         <f aca="false">SUM(G$3:G30)</f>
-        <v>1.69791666666667</v>
+        <v>2.03125</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1256,7 +1295,7 @@
       </c>
       <c r="H31" s="19" t="n">
         <f aca="false">SUM(G$3:G31)</f>
-        <v>1.69791666666667</v>
+        <v>2.03125</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1267,7 +1306,7 @@
       </c>
       <c r="H32" s="19" t="n">
         <f aca="false">SUM(G$3:G32)</f>
-        <v>1.69791666666667</v>
+        <v>2.03125</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1366,7 +1405,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -1375,10 +1414,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1386,7 +1425,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1394,7 +1433,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1402,7 +1441,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1410,7 +1449,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1418,7 +1457,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1426,7 +1465,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1434,7 +1473,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1442,7 +1481,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1450,7 +1489,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1458,7 +1497,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1466,7 +1505,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1474,7 +1513,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1482,7 +1521,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1490,7 +1529,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1498,7 +1537,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1506,7 +1545,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1514,7 +1553,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1522,7 +1561,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1530,7 +1569,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1538,7 +1577,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1546,7 +1585,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1554,7 +1593,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1562,7 +1601,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1570,7 +1609,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1578,7 +1617,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1586,7 +1625,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1594,7 +1633,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1602,7 +1641,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1610,7 +1649,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/08 Project Management/Tidsregistrering/PM04 Tidsregistrering for Toke.xlsx
+++ b/08 Project Management/Tidsregistrering/PM04 Tidsregistrering for Toke.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
   <si>
     <t xml:space="preserve">Tidsregistrering af Toke</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t xml:space="preserve">Kunden møde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lav UC03 og review UC10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD01xx-DCD01xx</t>
   </si>
   <si>
     <t xml:space="preserve">Roller!</t>
@@ -589,9 +595,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>243720</xdr:colOff>
+      <xdr:colOff>243360</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>80640</xdr:rowOff>
+      <xdr:rowOff>80280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -601,7 +607,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12440160" y="2517480"/>
-          <a:ext cx="182880" cy="246960"/>
+          <a:ext cx="182520" cy="246600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -631,7 +637,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+      <selection pane="topLeft" activeCell="D48" activeCellId="0" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1124,7 +1130,7 @@
         <v>28</v>
       </c>
       <c r="C22" s="15" t="n">
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="D22" s="3" t="n">
         <v>0.354166666666667</v>
@@ -1147,7 +1153,7 @@
         <v>29</v>
       </c>
       <c r="C23" s="15" t="n">
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="D23" s="3" t="n">
         <v>0.385416666666667</v>
@@ -1170,7 +1176,7 @@
         <v>30</v>
       </c>
       <c r="C24" s="15" t="n">
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="D24" s="3" t="n">
         <v>0.541666666666667</v>
@@ -1193,7 +1199,7 @@
         <v>31</v>
       </c>
       <c r="C25" s="15" t="n">
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="D25" s="3" t="n">
         <v>0.354166666666667</v>
@@ -1215,7 +1221,7 @@
         <v>32</v>
       </c>
       <c r="C26" s="15" t="n">
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="D26" s="3" t="n">
         <v>0.541666666666667</v>
@@ -1237,7 +1243,7 @@
         <v>31</v>
       </c>
       <c r="C27" s="15" t="n">
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="D27" s="3" t="n">
         <v>0.604166666666667</v>
@@ -1255,47 +1261,91 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="15"/>
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="15" t="n">
+        <v>43970</v>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>0.416666666666667</v>
+      </c>
       <c r="G28" s="18" t="n">
         <f aca="false">E28-D28</f>
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="H28" s="19" t="n">
         <f aca="false">SUM(G$3:G28)</f>
-        <v>2.03125</v>
+        <v>2.09375</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="15"/>
+      <c r="A29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="15" t="n">
+        <v>43970</v>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>0.541666666666667</v>
+      </c>
       <c r="G29" s="18" t="n">
         <f aca="false">E29-D29</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="H29" s="19" t="n">
         <f aca="false">SUM(G$3:G29)</f>
-        <v>2.03125</v>
+        <v>2.21875</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="15"/>
+      <c r="A30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="15" t="n">
+        <v>43970</v>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>0.59375</v>
+      </c>
       <c r="G30" s="18" t="n">
         <f aca="false">E30-D30</f>
-        <v>0</v>
+        <v>0.0520833333333333</v>
       </c>
       <c r="H30" s="19" t="n">
         <f aca="false">SUM(G$3:G30)</f>
-        <v>2.03125</v>
+        <v>2.27083333333333</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="15"/>
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="15" t="n">
+        <v>43970</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>0.59375</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>0.697916666666667</v>
+      </c>
       <c r="G31" s="18" t="n">
         <f aca="false">E31-D31</f>
-        <v>0</v>
+        <v>0.104166666666667</v>
       </c>
       <c r="H31" s="19" t="n">
         <f aca="false">SUM(G$3:G31)</f>
-        <v>2.03125</v>
+        <v>2.375</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1306,7 +1356,7 @@
       </c>
       <c r="H32" s="19" t="n">
         <f aca="false">SUM(G$3:G32)</f>
-        <v>2.03125</v>
+        <v>2.375</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1405,7 +1455,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -1414,10 +1464,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1425,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1433,7 +1483,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1441,7 +1491,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1449,7 +1499,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1457,7 +1507,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1465,7 +1515,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1473,7 +1523,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1481,7 +1531,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1489,7 +1539,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1497,7 +1547,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1505,7 +1555,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1513,7 +1563,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1521,7 +1571,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1529,7 +1579,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1537,7 +1587,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1545,7 +1595,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1553,7 +1603,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1561,7 +1611,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1569,7 +1619,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1577,7 +1627,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1585,7 +1635,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1593,7 +1643,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1601,7 +1651,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1609,7 +1659,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1617,7 +1667,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1625,7 +1675,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1633,7 +1683,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1641,7 +1691,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1649,7 +1699,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/08 Project Management/Tidsregistrering/PM04 Tidsregistrering for Toke.xlsx
+++ b/08 Project Management/Tidsregistrering/PM04 Tidsregistrering for Toke.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
   <si>
     <t xml:space="preserve">Tidsregistrering af Toke</t>
   </si>
@@ -129,6 +129,18 @@
   </si>
   <si>
     <t xml:space="preserve">SD01xx-DCD01xx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD0102+DCD0102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vejledning fra Karsten og Andárs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOM10</t>
   </si>
   <si>
     <t xml:space="preserve">Roller!</t>
@@ -591,11 +603,11 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>60840</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>69120</xdr:rowOff>
+      <xdr:rowOff>69480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>243360</xdr:colOff>
+      <xdr:colOff>243000</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>80280</xdr:rowOff>
     </xdr:to>
@@ -606,8 +618,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12440160" y="2517480"/>
-          <a:ext cx="182520" cy="246600"/>
+          <a:off x="12440160" y="2517840"/>
+          <a:ext cx="182160" cy="246240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -634,10 +646,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H143"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D48" activeCellId="0" sqref="D48"/>
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1348,72 +1360,223 @@
         <v>2.375</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="15"/>
+    <row r="32" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="15" t="n">
+        <v>43971</v>
+      </c>
+      <c r="D32" s="3" t="n">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>0.416666666666667</v>
+      </c>
       <c r="G32" s="18" t="n">
         <f aca="false">E32-D32</f>
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="H32" s="19" t="n">
         <f aca="false">SUM(G$3:G32)</f>
-        <v>2.375</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="15"/>
-    </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="15"/>
-    </row>
-    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="15"/>
-    </row>
-    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="15"/>
-    </row>
-    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.4375</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="15" t="n">
+        <v>43971</v>
+      </c>
+      <c r="D33" s="3" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E33" s="3" t="n">
+        <v>0.541666666666667</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="15" t="n">
+        <v>43971</v>
+      </c>
+      <c r="D34" s="3" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="E34" s="3" t="n">
+        <v>0.604166666666667</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="15" t="n">
+        <v>43971</v>
+      </c>
+      <c r="D35" s="3" t="n">
+        <v>0.604166666666667</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>0.635416666666667</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="15" t="n">
+        <v>43971</v>
+      </c>
+      <c r="D36" s="3" t="n">
+        <v>0.635416666666667</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="15"/>
     </row>
-    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="15"/>
     </row>
-    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="15"/>
     </row>
-    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="15"/>
     </row>
-    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="15"/>
     </row>
-    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="15"/>
     </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="15"/>
     </row>
-    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="15"/>
     </row>
-    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="15"/>
     </row>
-    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="15"/>
     </row>
-    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="15"/>
     </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <dataValidations count="4">
+  <dataValidations count="6">
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B3:B1032" type="list">
       <formula1>Roller</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C1:C2 C32:C1032" type="date">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C1:C2 C144:C1032" type="date">
       <formula1>43881</formula1>
       <formula2>43908</formula2>
     </dataValidation>
@@ -1424,6 +1587,14 @@
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C3:C31" type="date">
       <formula1>43881</formula1>
       <formula2>50000</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C32" type="date">
+      <formula1>43881</formula1>
+      <formula2>1E+019</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C33:C143" type="date">
+      <formula1>43881</formula1>
+      <formula2>439080</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1455,7 +1626,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -1464,10 +1635,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1475,7 +1646,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1483,7 +1654,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1491,7 +1662,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1499,7 +1670,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1507,7 +1678,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1515,7 +1686,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1523,7 +1694,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1531,7 +1702,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1539,7 +1710,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1547,7 +1718,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1555,7 +1726,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1563,7 +1734,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1571,7 +1742,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1579,7 +1750,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1587,7 +1758,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1595,7 +1766,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1603,7 +1774,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1611,7 +1782,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1619,7 +1790,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1627,7 +1798,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1635,7 +1806,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1643,7 +1814,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1651,7 +1822,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1659,7 +1830,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1667,7 +1838,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1675,7 +1846,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1683,7 +1854,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1691,7 +1862,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1699,7 +1870,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/08 Project Management/Tidsregistrering/PM04 Tidsregistrering for Toke.xlsx
+++ b/08 Project Management/Tidsregistrering/PM04 Tidsregistrering for Toke.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
   <si>
     <t xml:space="preserve">Tidsregistrering af Toke</t>
   </si>
@@ -141,6 +141,18 @@
   </si>
   <si>
     <t xml:space="preserve">DOM10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lav SSD03 og review SSD10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rettelse af SD01xx og DCD01xx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lav DD03 og DD10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementering af designet fra mockup</t>
   </si>
   <si>
     <t xml:space="preserve">Roller!</t>
@@ -607,9 +619,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>243000</xdr:colOff>
+      <xdr:colOff>242640</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:rowOff>79920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -619,7 +631,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12440160" y="2517840"/>
-          <a:ext cx="182160" cy="246240"/>
+          <a:ext cx="181800" cy="245880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -649,7 +661,7 @@
   <dimension ref="A1:H143"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+      <selection pane="topLeft" activeCell="E41" activeCellId="0" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1429,7 +1441,7 @@
         <v>21</v>
       </c>
       <c r="C36" s="15" t="n">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="D36" s="3" t="n">
         <v>0.635416666666667</v>
@@ -1439,16 +1451,60 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="15"/>
+      <c r="A37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="15" t="n">
+        <v>43972</v>
+      </c>
+      <c r="D37" s="3" t="n">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="E37" s="3" t="n">
+        <v>0.458333333333333</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="15"/>
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="15" t="n">
+        <v>43972</v>
+      </c>
+      <c r="D38" s="3" t="n">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E38" s="3" t="n">
+        <v>0.583333333333333</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="15"/>
+      <c r="A39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="15" t="n">
+        <v>43972</v>
+      </c>
+      <c r="D39" s="3" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="E39" s="3" t="n">
+        <v>0.635416666666667</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="15"/>
+      <c r="A40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="15" t="n">
+        <v>43972</v>
+      </c>
+      <c r="D40" s="3" t="n">
+        <v>0.635416666666667</v>
+      </c>
+      <c r="E40" s="3" t="n">
+        <v>0.6875</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="15"/>
@@ -1626,7 +1682,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -1635,10 +1691,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1646,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1654,7 +1710,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1662,7 +1718,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1670,7 +1726,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1678,7 +1734,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1686,7 +1742,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1694,7 +1750,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1702,7 +1758,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1710,7 +1766,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1718,7 +1774,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1726,7 +1782,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1734,7 +1790,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1742,7 +1798,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1750,7 +1806,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1758,7 +1814,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1766,7 +1822,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1774,7 +1830,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1782,7 +1838,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1790,7 +1846,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1798,7 +1854,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1806,7 +1862,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1814,7 +1870,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1822,7 +1878,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1830,7 +1886,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1838,7 +1894,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1846,7 +1902,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1854,7 +1910,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1862,7 +1918,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1870,7 +1926,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
